--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="532">
   <si>
     <t>Schemes</t>
   </si>
@@ -1995,6 +1995,102 @@
   <si>
     <t>jknkjgjhb</t>
   </si>
+  <si>
+    <t>Add Notification</t>
+  </si>
+  <si>
+    <t>Order Cancelled</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>This is Best Jewellery</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Intimation</t>
+  </si>
+  <si>
+    <t>Update Notification</t>
+  </si>
+  <si>
+    <t>This is Best Jewelleryy</t>
+  </si>
+  <si>
+    <t>Intimationn</t>
+  </si>
+  <si>
+    <t>Xyzxyz</t>
+  </si>
+  <si>
+    <t>Filter Page</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>5/28/2002</t>
+  </si>
+  <si>
+    <t>ExpireDate</t>
+  </si>
+  <si>
+    <t>5/28/2016</t>
+  </si>
+  <si>
+    <t>8179645836</t>
+  </si>
+  <si>
+    <t>TransactionId</t>
+  </si>
+  <si>
+    <t>350640869</t>
+  </si>
+  <si>
+    <t>AFromDate</t>
+  </si>
+  <si>
+    <t>5/28/2024</t>
+  </si>
+  <si>
+    <t>AExpireDate</t>
+  </si>
+  <si>
+    <t>FilterPageNegative</t>
+  </si>
+  <si>
+    <t>PastFromDate</t>
+  </si>
+  <si>
+    <t>5/22/2002</t>
+  </si>
+  <si>
+    <t>PastExpireDate</t>
+  </si>
+  <si>
+    <t>5/30/2009</t>
+  </si>
+  <si>
+    <t>User List</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>AllUserSearchValue</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>ReferredUserListSearchValue</t>
+  </si>
 </sst>
 </file>
 
@@ -2007,7 +2103,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2022,6 +2118,19 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2706,215 +2815,217 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2927,52 +3038,53 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3311,8 +3423,8 @@
     <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="64" customFormat="1" spans="7:7">
-      <c r="G1" s="66" t="s">
+    <row r="1" s="66" customFormat="1" spans="7:7">
+      <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3320,25 +3432,25 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="70" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="70" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3346,25 +3458,25 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="70" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3372,25 +3484,25 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="70" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="70" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3398,25 +3510,25 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="70" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3424,25 +3536,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="70" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="70" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="70" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3450,25 +3562,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="70" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3476,25 +3588,25 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="70" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="70" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="70" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3502,25 +3614,25 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="70" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3528,25 +3640,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="70" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="70" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3554,25 +3666,25 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="70" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3580,25 +3692,25 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="70" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="70" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="68" t="s">
+      <c r="K14" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3606,30 +3718,30 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="10:10">
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3637,31 +3749,31 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="70" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="70" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="70" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="K17" s="70" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="68" t="s">
+      <c r="M17" s="70" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3669,31 +3781,31 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="68" t="s">
+      <c r="H18" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="68" t="s">
+      <c r="K18" s="70" t="s">
         <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="68" t="s">
+      <c r="M18" s="70" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3701,31 +3813,31 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="70" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="70" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="70" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="68" t="s">
+      <c r="K19" s="70" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="68" t="s">
+      <c r="M19" s="70" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3733,31 +3845,31 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="70" t="s">
         <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="68" t="s">
+      <c r="M20" s="70" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3765,13 +3877,13 @@
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="68" t="s">
+      <c r="K21" s="70" t="s">
         <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="70" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3779,31 +3891,31 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="70" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="E22" s="70" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="68" t="s">
+      <c r="H22" s="70" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="68" t="s">
+      <c r="K22" s="70" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="68" t="s">
+      <c r="M22" s="70" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3811,31 +3923,31 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="68" t="s">
+      <c r="E23" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="68" t="s">
+      <c r="K23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="68" t="s">
+      <c r="M23" s="70" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3843,31 +3955,31 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="70" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="68" t="s">
+      <c r="E24" s="70" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="68" t="s">
+      <c r="H24" s="70" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="68" t="s">
+      <c r="K24" s="70" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="68" t="s">
+      <c r="M24" s="70" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3875,162 +3987,162 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="68" t="s">
+      <c r="E25" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="68" t="s">
+      <c r="K25" s="70" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="68" t="s">
+      <c r="M25" s="70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" s="65" customFormat="1" spans="1:1">
-      <c r="A29" s="65" t="s">
+    <row r="29" s="67" customFormat="1" spans="1:1">
+      <c r="A29" s="67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:2">
-      <c r="A30" s="67" t="s">
+    <row r="30" s="9" customFormat="1" spans="1:2">
+      <c r="A30" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="1:2">
-      <c r="A31" s="67" t="s">
+    <row r="31" s="9" customFormat="1" spans="1:2">
+      <c r="A31" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:2">
-      <c r="A32" s="67" t="s">
+    <row r="32" s="9" customFormat="1" spans="1:2">
+      <c r="A32" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:2">
-      <c r="A33" s="67" t="s">
+    <row r="33" s="9" customFormat="1" spans="1:2">
+      <c r="A33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:2">
-      <c r="A34" s="67" t="s">
+    <row r="34" s="9" customFormat="1" spans="1:2">
+      <c r="A34" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:2">
-      <c r="A35" s="67" t="s">
+    <row r="35" s="9" customFormat="1" spans="1:2">
+      <c r="A35" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" spans="1:2">
-      <c r="A36" s="67" t="s">
+    <row r="36" s="9" customFormat="1" spans="1:2">
+      <c r="A36" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:2">
-      <c r="A37" s="67" t="s">
+    <row r="37" s="9" customFormat="1" spans="1:2">
+      <c r="A37" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" spans="1:2">
-      <c r="A38" s="67" t="s">
+    <row r="38" s="9" customFormat="1" spans="1:2">
+      <c r="A38" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" spans="1:2">
-      <c r="A39" s="67" t="s">
+    <row r="39" s="9" customFormat="1" spans="1:2">
+      <c r="A39" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" spans="1:2">
-      <c r="A40" s="67" t="s">
+    <row r="40" s="9" customFormat="1" spans="1:2">
+      <c r="A40" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" s="7" customFormat="1" spans="1:2">
-      <c r="A41" s="67" t="s">
+    <row r="41" s="9" customFormat="1" spans="1:2">
+      <c r="A41" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="1:2">
-      <c r="A42" s="67" t="s">
+    <row r="42" s="9" customFormat="1" spans="1:2">
+      <c r="A42" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" spans="1:2">
-      <c r="A43" s="67" t="s">
+    <row r="43" s="9" customFormat="1" spans="1:2">
+      <c r="A43" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1"/>
-    <row r="45" s="65" customFormat="1" spans="1:1">
-      <c r="A45" s="65" t="s">
+    <row r="44" s="9" customFormat="1"/>
+    <row r="45" s="67" customFormat="1" spans="1:1">
+      <c r="A45" s="67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" spans="1:2">
-      <c r="A46" s="7" t="s">
+    <row r="46" s="9" customFormat="1" spans="1:2">
+      <c r="A46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4044,20 +4156,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="27.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11.1111111111111"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>486</v>
       </c>
     </row>
@@ -4065,19 +4178,19 @@
       <c r="A2" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>487</v>
       </c>
       <c r="C2" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="70" t="s">
         <v>488</v>
       </c>
       <c r="E2" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="85" t="s">
         <v>489</v>
       </c>
     </row>
@@ -4097,7 +4210,7 @@
       <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="85" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4105,18 +4218,18 @@
       <c r="A4" t="s">
         <v>495</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>496</v>
       </c>
       <c r="C4" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="70" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4126,6 +4239,183 @@
       </c>
       <c r="B7" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>502</v>
+      </c>
+      <c r="B16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>504</v>
+      </c>
+      <c r="B17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>522</v>
+      </c>
+      <c r="B29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>524</v>
+      </c>
+      <c r="B30" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>528</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>530</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>531</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4146,32 +4436,32 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4196,257 +4486,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="65" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="65" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="65" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="65" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="65" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="65" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="65" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="65" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="65" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="65" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="65" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="65" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="65" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="65" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="65" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="65" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="65" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="65" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="65" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="65" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="65" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="65" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="65" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="65" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="65" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="65" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="65" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="65" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="65" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="65" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="65" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4477,10 +4767,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4499,10 +4789,10 @@
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="57" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4510,21 +4800,21 @@
       <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="70" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="55" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4560,13 +4850,13 @@
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="70" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4588,18 +4878,18 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="70" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4607,7 +4897,7 @@
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="56" t="s">
         <v>156</v>
       </c>
       <c r="G14" t="s">
@@ -4618,10 +4908,10 @@
       <c r="A15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="70" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4629,7 +4919,7 @@
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="56" t="s">
         <v>161</v>
       </c>
       <c r="G16" t="s">
@@ -4673,10 +4963,10 @@
       <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="70" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4692,28 +4982,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="55" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4747,10 +5037,10 @@
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="70" t="s">
         <v>185</v>
       </c>
       <c r="D25" t="s">
@@ -4759,10 +5049,10 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="70" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
@@ -4782,7 +5072,7 @@
       <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="56" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
@@ -4825,39 +5115,39 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="68" t="s">
+      <c r="I28" s="70" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="55" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4871,7 +5161,7 @@
       <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="60"/>
       <c r="G31" t="s">
         <v>200</v>
       </c>
@@ -4883,19 +5173,19 @@
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="68" t="s">
+      <c r="H32" s="70" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4951,7 +5241,7 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="62" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4979,18 +5269,18 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="55" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="53"/>
+      <c r="A40" s="55"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="70" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
@@ -4999,7 +5289,7 @@
       <c r="D41">
         <v>12345</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="E41" s="70" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
@@ -5016,25 +5306,25 @@
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="55" t="s">
+      <c r="I42" s="57" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5042,30 +5332,30 @@
       <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="72" t="s">
+      <c r="F43" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="72" t="s">
+      <c r="H43" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="70" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="55" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5084,10 +5374,10 @@
       <c r="A48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="70" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5095,10 +5385,10 @@
       <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="70" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5106,7 +5396,7 @@
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="70" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
@@ -5117,7 +5407,7 @@
       <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="70" t="s">
         <v>245</v>
       </c>
       <c r="C51" t="s">
@@ -5125,10 +5415,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="55" t="s">
         <v>248</v>
       </c>
       <c r="D53" t="s">
@@ -5136,7 +5426,7 @@
       </c>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="61"/>
+      <c r="D54" s="63"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -5156,10 +5446,10 @@
       <c r="A56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="70" t="s">
         <v>252</v>
       </c>
       <c r="D56" t="s">
@@ -5170,7 +5460,7 @@
       <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="58" t="s">
         <v>254</v>
       </c>
       <c r="C57" t="s">
@@ -5184,10 +5474,10 @@
       <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="56" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
@@ -5198,13 +5488,13 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="28" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5212,13 +5502,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="28" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5226,10 +5516,10 @@
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="70" t="s">
         <v>264</v>
       </c>
       <c r="D61" t="s">
@@ -5240,24 +5530,24 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="64" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="61"/>
+      <c r="D64" s="63"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -5266,7 +5556,7 @@
       <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="56" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
@@ -5291,13 +5581,13 @@
       <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="28" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5305,10 +5595,10 @@
       <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B69" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="70" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
@@ -5330,7 +5620,7 @@
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="55" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5349,7 +5639,7 @@
       <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="70" t="s">
         <v>279</v>
       </c>
       <c r="C75" t="s">
@@ -5422,53 +5712,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="49" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" style="49" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="49"/>
+    <col min="1" max="1" width="13.1111111111111" style="51" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" style="51" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="1" spans="1:12">
-      <c r="A1" s="50" t="s">
+    <row r="1" s="50" customFormat="1" spans="1:12">
+      <c r="A1" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="75" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="76" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5492,1136 +5782,1136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="29" customWidth="1"/>
-    <col min="2" max="2" width="25.1111111111111" style="29" customWidth="1"/>
-    <col min="3" max="3" width="23.2222222222222" style="29" customWidth="1"/>
-    <col min="4" max="4" width="22.1111111111111" style="29" customWidth="1"/>
-    <col min="5" max="5" width="14" style="29" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" style="29" customWidth="1"/>
-    <col min="7" max="7" width="22.2222222222222" style="29" customWidth="1"/>
-    <col min="8" max="8" width="17.8888888888889" style="29" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="29"/>
-    <col min="10" max="10" width="19.5555555555556" style="29" customWidth="1"/>
-    <col min="11" max="11" width="24.7777777777778" style="29" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="29"/>
+    <col min="1" max="1" width="23.4444444444444" style="31" customWidth="1"/>
+    <col min="2" max="2" width="25.1111111111111" style="31" customWidth="1"/>
+    <col min="3" max="3" width="23.2222222222222" style="31" customWidth="1"/>
+    <col min="4" max="4" width="22.1111111111111" style="31" customWidth="1"/>
+    <col min="5" max="5" width="14" style="31" customWidth="1"/>
+    <col min="6" max="6" width="14.4444444444444" style="31" customWidth="1"/>
+    <col min="7" max="7" width="22.2222222222222" style="31" customWidth="1"/>
+    <col min="8" max="8" width="17.8888888888889" style="31" customWidth="1"/>
+    <col min="9" max="9" width="8.88888888888889" style="31"/>
+    <col min="10" max="10" width="19.5555555555556" style="31" customWidth="1"/>
+    <col min="11" max="11" width="24.7777777777778" style="31" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="34" customFormat="1" spans="1:1">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="36" customFormat="1" spans="1:1">
+      <c r="A1" s="36" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="35" customFormat="1" spans="1:1">
-      <c r="A2" s="35" t="s">
+    <row r="2" s="37" customFormat="1" spans="1:1">
+      <c r="A2" s="37" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" s="35" customFormat="1" spans="1:1">
-      <c r="A6" s="35" t="s">
+    <row r="6" s="37" customFormat="1" spans="1:1">
+      <c r="A6" s="37" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" s="28" customFormat="1" spans="1:1">
-      <c r="A9" s="28" t="s">
+    <row r="9" s="30" customFormat="1" spans="1:1">
+      <c r="A9" s="30" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" s="35" customFormat="1" spans="1:1">
-      <c r="A12" s="35" t="s">
+    <row r="12" s="37" customFormat="1" spans="1:1">
+      <c r="A12" s="37" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="40" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" s="28" customFormat="1" spans="1:1">
-      <c r="A15" s="28" t="s">
+    <row r="15" s="30" customFormat="1" spans="1:1">
+      <c r="A15" s="30" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="31" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" s="28" customFormat="1" spans="1:1">
-      <c r="A19" s="28" t="s">
+    <row r="19" s="30" customFormat="1" spans="1:1">
+      <c r="A19" s="30" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="31" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" s="35" customFormat="1" spans="1:1">
-      <c r="A23" s="35" t="s">
+    <row r="23" s="37" customFormat="1" spans="1:1">
+      <c r="A23" s="37" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="41"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="39"/>
-    </row>
-    <row r="26" s="28" customFormat="1" spans="1:10">
-      <c r="A26" s="28" t="s">
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" s="30" customFormat="1" spans="1:10">
+      <c r="A26" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="J26" s="30" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="29" t="s">
+      <c r="K27" s="31" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="31" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="29" t="s">
+      <c r="K29" s="31" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30" ht="14.4" spans="1:11">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="31" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="77" t="s">
+      <c r="H31" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="J31" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="77" t="s">
+      <c r="K31" s="79" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="77" t="s">
+      <c r="H32" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="31" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="29" t="s">
+      <c r="K33" s="31" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B34" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="77" t="s">
+      <c r="K34" s="79" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="35" ht="14.4" spans="1:11">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="79" t="s">
         <v>358</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="77" t="s">
+      <c r="K35" s="79" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="77" t="s">
+      <c r="H36" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="J36" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="77" t="s">
+      <c r="K36" s="79" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="77" t="s">
+      <c r="H37" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="J37" s="29" t="s">
+      <c r="J37" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="K37" s="31" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" s="28" customFormat="1" spans="1:1">
-      <c r="A39" s="42" t="s">
+    <row r="39" s="30" customFormat="1" spans="1:1">
+      <c r="A39" s="44" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="31" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="45" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="79" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="32"/>
+      <c r="E43" s="34"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="32"/>
-    </row>
-    <row r="45" s="28" customFormat="1" spans="1:1">
-      <c r="A45" s="44" t="s">
+      <c r="E44" s="34"/>
+    </row>
+    <row r="45" s="30" customFormat="1" spans="1:1">
+      <c r="A45" s="46" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="31" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="31" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" s="35" customFormat="1" spans="1:1">
-      <c r="A48" s="45" t="s">
+    <row r="48" s="37" customFormat="1" spans="1:1">
+      <c r="A48" s="47" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="80" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="79" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="81" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="32"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="79" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" s="35" customFormat="1" spans="1:1">
-      <c r="A55" s="35" t="s">
+    <row r="55" s="37" customFormat="1" spans="1:1">
+      <c r="A55" s="37" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="32"/>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="80" t="s">
+      <c r="B57" s="82" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" s="27" customFormat="1" spans="1:1">
-      <c r="A61" s="27" t="s">
+    <row r="61" s="29" customFormat="1" spans="1:1">
+      <c r="A61" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" s="28" customFormat="1" spans="1:2">
-      <c r="A62" s="28" t="s">
+    <row r="62" s="30" customFormat="1" spans="1:2">
+      <c r="A62" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="30" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="31" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="77" t="s">
+      <c r="C64" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="32"/>
+      <c r="E64" s="34"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="79" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="67" s="30" customFormat="1" spans="1:5">
-      <c r="A67" s="30" t="s">
+    <row r="67" s="32" customFormat="1" spans="1:5">
+      <c r="A67" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="46"/>
+      <c r="E67" s="48"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="78" t="s">
+      <c r="B68" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="32"/>
+      <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="32"/>
+      <c r="E69" s="34"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="E70" s="32"/>
+      <c r="E70" s="34"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" s="28" customFormat="1" spans="1:5">
-      <c r="A72" s="28" t="s">
+      <c r="E71" s="34"/>
+    </row>
+    <row r="72" s="30" customFormat="1" spans="1:5">
+      <c r="A72" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="44"/>
+      <c r="E72" s="46"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="31" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="79" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="77" t="s">
+      <c r="C74" s="79" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="32"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="34"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="77" t="s">
+      <c r="B75" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="34"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="32"/>
-    </row>
-    <row r="77" s="30" customFormat="1" spans="1:5">
-      <c r="A77" s="30" t="s">
+      <c r="E76" s="34"/>
+    </row>
+    <row r="77" s="32" customFormat="1" spans="1:5">
+      <c r="A77" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="46"/>
+      <c r="E77" s="48"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="31"/>
+      <c r="D78" s="33"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="78" t="s">
+      <c r="B79" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="34"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="32" t="s">
+      <c r="A80" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="32"/>
+      <c r="E80" s="34"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="32"/>
-    </row>
-    <row r="82" s="28" customFormat="1" spans="1:1">
-      <c r="A82" s="28" t="s">
+      <c r="E81" s="34"/>
+    </row>
+    <row r="82" s="30" customFormat="1" spans="1:1">
+      <c r="A82" s="30" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="77" t="s">
+      <c r="C83" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="31" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="80" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="77" t="s">
+      <c r="C84" s="79" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="77" t="s">
+      <c r="B85" s="79" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="32"/>
-    </row>
-    <row r="87" s="30" customFormat="1" spans="1:5">
-      <c r="A87" s="30" t="s">
+      <c r="E86" s="34"/>
+    </row>
+    <row r="87" s="32" customFormat="1" spans="1:5">
+      <c r="A87" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="46"/>
+      <c r="E87" s="48"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="29" t="s">
+      <c r="A88" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="78" t="s">
+      <c r="B88" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="32"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="34"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B89" s="78" t="s">
+      <c r="B89" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="32"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="34"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="79" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" s="27" customFormat="1" spans="1:1">
-      <c r="A93" s="27" t="s">
+    <row r="93" s="29" customFormat="1" spans="1:1">
+      <c r="A93" s="29" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" s="28" customFormat="1" spans="1:1">
-      <c r="A94" s="28" t="s">
+    <row r="94" s="30" customFormat="1" spans="1:1">
+      <c r="A94" s="30" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="95" s="33" customFormat="1" spans="1:1">
-      <c r="A95" s="33" t="s">
+    <row r="95" s="35" customFormat="1" spans="1:1">
+      <c r="A95" s="35" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="77" t="s">
+      <c r="B96" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="32"/>
+      <c r="E96" s="34"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="77" t="s">
+      <c r="B97" s="79" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="77" t="s">
+      <c r="C97" s="79" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="77" t="s">
+      <c r="B98" s="79" t="s">
         <v>420</v>
       </c>
-      <c r="C98" s="78" t="s">
+      <c r="C98" s="80" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="99" ht="27.6" spans="1:3">
-      <c r="A99" s="29" t="s">
+      <c r="A99" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="77" t="s">
+      <c r="B99" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="C99" s="77" t="s">
+      <c r="C99" s="79" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="D100" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="47" t="s">
+      <c r="E100" s="49" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="32"/>
-    </row>
-    <row r="102" s="33" customFormat="1" spans="1:1">
-      <c r="A102" s="33" t="s">
+      <c r="E101" s="34"/>
+    </row>
+    <row r="102" s="35" customFormat="1" spans="1:1">
+      <c r="A102" s="35" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="77" t="s">
+      <c r="B103" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="32"/>
+      <c r="E103" s="34"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B104" s="77" t="s">
+      <c r="B104" s="79" t="s">
         <v>426</v>
       </c>
-      <c r="D104" s="31"/>
-      <c r="E104" s="32"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="34"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="78" t="s">
+      <c r="B105" s="80" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="106" ht="27.6" spans="1:11">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="32"/>
-      <c r="I106" s="47"/>
-      <c r="K106" s="32"/>
+      <c r="E106" s="34"/>
+      <c r="I106" s="49"/>
+      <c r="K106" s="34"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="M107" s="32"/>
+      <c r="M107" s="34"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B108" s="49" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="110" s="28" customFormat="1" spans="1:1">
-      <c r="A110" s="28" t="s">
+    <row r="110" s="30" customFormat="1" spans="1:1">
+      <c r="A110" s="30" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="111" s="33" customFormat="1" spans="1:1">
-      <c r="A111" s="33" t="s">
+    <row r="111" s="35" customFormat="1" spans="1:1">
+      <c r="A111" s="35" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="29" t="s">
+      <c r="A112" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="77" t="s">
+      <c r="B112" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="32"/>
+      <c r="E112" s="34"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="29" t="s">
+      <c r="A113" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="77" t="s">
+      <c r="B113" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="C113" s="77" t="s">
+      <c r="C113" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="E113" s="32"/>
+      <c r="E113" s="34"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="29" t="s">
+      <c r="A114" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="77" t="s">
+      <c r="B114" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="C114" s="77" t="s">
+      <c r="C114" s="79" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="115" ht="27.6" spans="1:2">
-      <c r="A115" s="29" t="s">
+      <c r="A115" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="77" t="s">
+      <c r="B115" s="79" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="29" t="s">
+      <c r="A116" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B116" s="77" t="s">
+      <c r="B116" s="79" t="s">
         <v>435</v>
       </c>
-      <c r="C116" s="77" t="s">
+      <c r="C116" s="79" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="D117" s="29" t="s">
+      <c r="D117" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="E117" s="29" t="s">
+      <c r="E117" s="31" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" s="33" customFormat="1" spans="1:1">
-      <c r="A119" s="33" t="s">
+    <row r="119" s="35" customFormat="1" spans="1:1">
+      <c r="A119" s="35" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="77" t="s">
+      <c r="B120" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="32"/>
+      <c r="E120" s="34"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B121" s="77" t="s">
+      <c r="B121" s="79" t="s">
         <v>426</v>
       </c>
-      <c r="E121" s="32"/>
+      <c r="E121" s="34"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="29" t="s">
+      <c r="A122" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B122" s="77" t="s">
+      <c r="B122" s="79" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="123" ht="27.6" spans="1:2">
-      <c r="A123" s="29" t="s">
+      <c r="A123" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B123" s="77" t="s">
+      <c r="B123" s="79" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="77" t="s">
+      <c r="B124" s="79" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="29" t="s">
+      <c r="A125" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="31" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="47" t="s">
+      <c r="B126" s="49" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="129" s="27" customFormat="1" spans="1:1">
-      <c r="A129" s="27" t="s">
+    <row r="129" s="29" customFormat="1" spans="1:1">
+      <c r="A129" s="29" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="130" s="28" customFormat="1" spans="1:1">
-      <c r="A130" s="28" t="s">
+    <row r="130" s="30" customFormat="1" spans="1:1">
+      <c r="A130" s="30" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="131" s="36" customFormat="1" spans="1:2">
-      <c r="A131" s="36" t="s">
+    <row r="131" s="38" customFormat="1" spans="1:2">
+      <c r="A131" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="36" t="s">
+      <c r="B131" s="38" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="31" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="77" t="s">
+      <c r="B133" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="32"/>
+      <c r="E133" s="34"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B134" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="E134" s="32"/>
+      <c r="E134" s="34"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="31" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="29" t="s">
+      <c r="A136" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="B136" s="77" t="s">
+      <c r="B136" s="79" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6655,578 +6945,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="79" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="32" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="79" t="s">
         <v>450</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="80" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" ht="27.6" spans="1:4">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="79" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" ht="27.6" spans="1:4">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="77" t="s">
+      <c r="B53" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
     </row>
     <row r="54" ht="27.6" spans="1:4">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="77" t="s">
+      <c r="B54" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
     </row>
     <row r="62" ht="27.6" spans="1:4">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="B62" s="77" t="s">
+      <c r="B62" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="79" t="s">
         <v>457</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7253,7 +7543,7 @@
       <c r="A1" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7261,7 +7551,7 @@
       <c r="A2" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7282,190 +7572,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="23.4444444444444" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" s="6" customFormat="1" spans="1:2">
-      <c r="A10" s="16" t="s">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:2">
+      <c r="A10" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="25"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="83" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="84" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="84" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>485</v>
       </c>
     </row>

--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="543">
   <si>
     <t>Schemes</t>
   </si>
@@ -1957,13 +1957,10 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>30-05-2026</t>
+    <t>6-2-2024</t>
   </si>
   <si>
     <t>StartMonth</t>
@@ -1978,52 +1975,61 @@
     <t>April</t>
   </si>
   <si>
-    <t>30-06-2026</t>
+    <t>6-25-2024</t>
   </si>
   <si>
     <t>StartYear</t>
   </si>
   <si>
-    <t>2026</t>
+    <t>2024</t>
   </si>
   <si>
     <t>EndYear</t>
   </si>
   <si>
+    <t>6-24-2024</t>
+  </si>
+  <si>
+    <t>5-22-2026</t>
+  </si>
+  <si>
     <t>Notifications</t>
   </si>
   <si>
-    <t>jknkjgjhb</t>
+    <t>Order Delivered</t>
+  </si>
+  <si>
+    <t>Order Generated</t>
   </si>
   <si>
     <t>Add Notification</t>
   </si>
   <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Your Order Has been Successfully Created</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Intimation</t>
+  </si>
+  <si>
+    <t>Update Notification</t>
+  </si>
+  <si>
     <t>Order Cancelled</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>This is Best Jewellery</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Intimation</t>
-  </si>
-  <si>
-    <t>Update Notification</t>
-  </si>
-  <si>
-    <t>This is Best Jewelleryy</t>
-  </si>
-  <si>
-    <t>Intimationn</t>
-  </si>
-  <si>
-    <t>Xyzxyz</t>
+    <t>Stock Not Available</t>
+  </si>
+  <si>
+    <t>Pavani123</t>
+  </si>
+  <si>
+    <t>cgfhgvh</t>
   </si>
   <si>
     <t>Filter Page</t>
@@ -2080,6 +2086,9 @@
     <t>Positive</t>
   </si>
   <si>
+    <t>Add Gold</t>
+  </si>
+  <si>
     <t>AllUserSearchValue</t>
   </si>
   <si>
@@ -2090,6 +2099,30 @@
   </si>
   <si>
     <t>ReferredUserListSearchValue</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Invalid User</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>1871560882</t>
+  </si>
+  <si>
+    <t>86554447</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>madhu</t>
+  </si>
+  <si>
+    <t>sdfghxcvb</t>
   </si>
 </sst>
 </file>
@@ -2945,11 +2978,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3423,8 +3457,8 @@
     <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="66" customFormat="1" spans="7:7">
-      <c r="G1" s="68" t="s">
+    <row r="1" s="67" customFormat="1" spans="7:7">
+      <c r="G1" s="69" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3432,25 +3466,25 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="71" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="71" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="71" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3458,25 +3492,25 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="71" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="71" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="71" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3484,25 +3518,25 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="71" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="71" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3510,25 +3544,25 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="71" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="71" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3536,25 +3570,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="71" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="71" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="71" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="71" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3562,25 +3596,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="71" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="71" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="71" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3588,25 +3622,25 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="71" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="71" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="71" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="70" t="s">
+      <c r="K9" s="71" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3614,25 +3648,25 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="71" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="71" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3640,25 +3674,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="71" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="71" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="71" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="71" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3666,25 +3700,25 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="71" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="71" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="71" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3692,25 +3726,25 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="71" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="71" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="71" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="71" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3718,25 +3752,25 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="71" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="71" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3749,31 +3783,31 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="71" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="70" t="s">
+      <c r="E17" s="71" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="71" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="70" t="s">
+      <c r="K17" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="70" t="s">
+      <c r="M17" s="71" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3781,31 +3815,31 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="71" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="71" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="70" t="s">
+      <c r="M18" s="71" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3813,31 +3847,31 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="71" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="71" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="70" t="s">
+      <c r="K19" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="70" t="s">
+      <c r="M19" s="71" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3845,31 +3879,31 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="71" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="K20" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="70" t="s">
+      <c r="M20" s="71" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3877,13 +3911,13 @@
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="70" t="s">
+      <c r="K21" s="71" t="s">
         <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="70" t="s">
+      <c r="M21" s="71" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3891,31 +3925,31 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="71" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="71" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="71" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="70" t="s">
+      <c r="K22" s="71" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="70" t="s">
+      <c r="M22" s="71" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3923,31 +3957,31 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="71" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="71" t="s">
         <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="71" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="70" t="s">
+      <c r="M23" s="71" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3955,31 +3989,31 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="71" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="71" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="71" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="K24" s="71" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="70" t="s">
+      <c r="M24" s="71" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3987,162 +4021,162 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="71" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="71" t="s">
         <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="70" t="s">
+      <c r="K25" s="71" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="70" t="s">
+      <c r="M25" s="71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" s="67" customFormat="1" spans="1:1">
-      <c r="A29" s="67" t="s">
+    <row r="29" s="68" customFormat="1" spans="1:1">
+      <c r="A29" s="68" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" s="9" customFormat="1" spans="1:2">
-      <c r="A30" s="69" t="s">
+    <row r="30" s="10" customFormat="1" spans="1:2">
+      <c r="A30" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="72" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" s="9" customFormat="1" spans="1:2">
-      <c r="A31" s="69" t="s">
+    <row r="31" s="10" customFormat="1" spans="1:2">
+      <c r="A31" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" s="9" customFormat="1" spans="1:2">
-      <c r="A32" s="69" t="s">
+    <row r="32" s="10" customFormat="1" spans="1:2">
+      <c r="A32" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" s="9" customFormat="1" spans="1:2">
-      <c r="A33" s="69" t="s">
+    <row r="33" s="10" customFormat="1" spans="1:2">
+      <c r="A33" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" spans="1:2">
-      <c r="A34" s="69" t="s">
+    <row r="34" s="10" customFormat="1" spans="1:2">
+      <c r="A34" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" spans="1:2">
-      <c r="A35" s="69" t="s">
+    <row r="35" s="10" customFormat="1" spans="1:2">
+      <c r="A35" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="1" spans="1:2">
-      <c r="A36" s="69" t="s">
+    <row r="36" s="10" customFormat="1" spans="1:2">
+      <c r="A36" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" spans="1:2">
-      <c r="A37" s="69" t="s">
+    <row r="37" s="10" customFormat="1" spans="1:2">
+      <c r="A37" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="1" spans="1:2">
-      <c r="A38" s="69" t="s">
+    <row r="38" s="10" customFormat="1" spans="1:2">
+      <c r="A38" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" s="9" customFormat="1" spans="1:2">
-      <c r="A39" s="69" t="s">
+    <row r="39" s="10" customFormat="1" spans="1:2">
+      <c r="A39" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="1" spans="1:2">
-      <c r="A40" s="69" t="s">
+    <row r="40" s="10" customFormat="1" spans="1:2">
+      <c r="A40" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" s="9" customFormat="1" spans="1:2">
-      <c r="A41" s="69" t="s">
+    <row r="41" s="10" customFormat="1" spans="1:2">
+      <c r="A41" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" s="9" customFormat="1" spans="1:2">
-      <c r="A42" s="69" t="s">
+    <row r="42" s="10" customFormat="1" spans="1:2">
+      <c r="A42" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" s="9" customFormat="1" spans="1:2">
-      <c r="A43" s="69" t="s">
+    <row r="43" s="10" customFormat="1" spans="1:2">
+      <c r="A43" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" s="9" customFormat="1"/>
-    <row r="45" s="67" customFormat="1" spans="1:1">
-      <c r="A45" s="67" t="s">
+    <row r="44" s="10" customFormat="1"/>
+    <row r="45" s="68" customFormat="1" spans="1:1">
+      <c r="A45" s="68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" s="9" customFormat="1" spans="1:2">
-      <c r="A46" s="9" t="s">
+    <row r="46" s="10" customFormat="1" spans="1:2">
+      <c r="A46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4156,17 +4190,20 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="36.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="11.1111111111111"/>
+    <col min="7" max="7" width="11.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
@@ -4178,72 +4215,89 @@
       <c r="A2" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="70" t="s">
-        <v>487</v>
+      <c r="B2" s="71" t="s">
+        <v>294</v>
       </c>
       <c r="C2" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="70" t="s">
-        <v>488</v>
+      <c r="D2" s="71" t="s">
+        <v>487</v>
       </c>
       <c r="E2" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="85" t="s">
-        <v>489</v>
+      <c r="F2" s="86" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" t="s">
         <v>490</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>491</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>492</v>
-      </c>
-      <c r="D3" t="s">
-        <v>493</v>
       </c>
       <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="86" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B4" s="71" t="s">
         <v>495</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="C4" t="s">
         <v>496</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="86" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>496</v>
+    </row>
+    <row r="5" spans="5:6">
+      <c r="E5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>374</v>
       </c>
       <c r="B7" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4256,23 +4310,23 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4280,23 +4334,23 @@
         <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:1">
@@ -4304,118 +4358,176 @@
         <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>509</v>
+      <c r="B20" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C20" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B22" s="86" t="s">
-        <v>512</v>
+      <c r="A22" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B22" s="87" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>514</v>
+      <c r="A23" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>515</v>
+      <c r="B24" s="87" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B25" s="86" t="s">
-        <v>517</v>
+      <c r="A25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>519</v>
+      <c r="A26" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B27" s="86" t="s">
-        <v>519</v>
+      <c r="A27" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B29" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B30" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>529</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>528</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>531</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>532</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>530</v>
-      </c>
-      <c r="B34" s="70" t="s">
-        <v>529</v>
+        <v>533</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>532</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" t="s">
+        <v>535</v>
+      </c>
+      <c r="G36" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="1" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>538</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" t="s">
+        <v>541</v>
+      </c>
+      <c r="C41" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4436,32 +4548,32 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4486,257 +4598,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="66" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="66" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="66" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="66" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="66" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="66" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="66" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="66" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="66" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="66" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="66" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="66" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="66" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="66" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="66" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="66" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="66" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="66" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="66" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="66" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="66" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="66" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="66" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="66" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="66" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="66" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="66" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="66" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="66" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="66" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="65" t="s">
+      <c r="A47" s="66" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="66" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="66" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="66" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="66" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4767,10 +4879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4789,10 +4901,10 @@
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4800,21 +4912,21 @@
       <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="71" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="56" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4850,13 +4962,13 @@
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="71" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4878,18 +4990,18 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="71" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="56" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4897,7 +5009,7 @@
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="57" t="s">
         <v>156</v>
       </c>
       <c r="G14" t="s">
@@ -4908,10 +5020,10 @@
       <c r="A15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="71" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4919,7 +5031,7 @@
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="57" t="s">
         <v>161</v>
       </c>
       <c r="G16" t="s">
@@ -4963,10 +5075,10 @@
       <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="70" t="s">
+      <c r="G20" s="71" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4982,28 +5094,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="56" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5037,10 +5149,10 @@
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="71" t="s">
         <v>185</v>
       </c>
       <c r="D25" t="s">
@@ -5049,10 +5161,10 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="71" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
@@ -5072,7 +5184,7 @@
       <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="57" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
@@ -5115,39 +5227,39 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="70" t="s">
+      <c r="I28" s="71" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="56" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5161,7 +5273,7 @@
       <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="60"/>
+      <c r="D31" s="61"/>
       <c r="G31" t="s">
         <v>200</v>
       </c>
@@ -5173,19 +5285,19 @@
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="70" t="s">
+      <c r="H32" s="71" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5241,7 +5353,7 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="63" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5269,18 +5381,18 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="55"/>
+      <c r="A40" s="56"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="71" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
@@ -5289,7 +5401,7 @@
       <c r="D41">
         <v>12345</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="71" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
@@ -5306,25 +5418,25 @@
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="57" t="s">
+      <c r="G42" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="56" t="s">
+      <c r="H42" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="57" t="s">
+      <c r="I42" s="58" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5332,30 +5444,30 @@
       <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="74" t="s">
+      <c r="F43" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="74" t="s">
+      <c r="G43" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="74" t="s">
+      <c r="H43" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="70" t="s">
+      <c r="I43" s="71" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="56" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5374,10 +5486,10 @@
       <c r="A48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="71" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5385,10 +5497,10 @@
       <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="71" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5396,7 +5508,7 @@
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="71" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
@@ -5407,7 +5519,7 @@
       <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="71" t="s">
         <v>245</v>
       </c>
       <c r="C51" t="s">
@@ -5415,10 +5527,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="56" t="s">
         <v>248</v>
       </c>
       <c r="D53" t="s">
@@ -5426,7 +5538,7 @@
       </c>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="63"/>
+      <c r="D54" s="64"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -5446,10 +5558,10 @@
       <c r="A56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="71" t="s">
         <v>252</v>
       </c>
       <c r="D56" t="s">
@@ -5460,7 +5572,7 @@
       <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="59" t="s">
         <v>254</v>
       </c>
       <c r="C57" t="s">
@@ -5474,10 +5586,10 @@
       <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="57" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
@@ -5488,13 +5600,13 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="29" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5502,13 +5614,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="29" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5516,10 +5628,10 @@
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="71" t="s">
         <v>264</v>
       </c>
       <c r="D61" t="s">
@@ -5530,24 +5642,24 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="65" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="63"/>
+      <c r="D64" s="64"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -5556,7 +5668,7 @@
       <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="57" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
@@ -5581,13 +5693,13 @@
       <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="29" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5595,10 +5707,10 @@
       <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="70" t="s">
+      <c r="C69" s="71" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
@@ -5620,7 +5732,7 @@
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="55" t="s">
+      <c r="A72" s="56" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5639,7 +5751,7 @@
       <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="71" t="s">
         <v>279</v>
       </c>
       <c r="C75" t="s">
@@ -5712,53 +5824,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="51" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" style="51" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="51"/>
+    <col min="1" max="1" width="13.1111111111111" style="52" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" style="52" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="1" spans="1:12">
-      <c r="A1" s="52" t="s">
+    <row r="1" s="51" customFormat="1" spans="1:12">
+      <c r="A1" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="77" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5782,1136 +5894,1136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="31" customWidth="1"/>
-    <col min="2" max="2" width="25.1111111111111" style="31" customWidth="1"/>
-    <col min="3" max="3" width="23.2222222222222" style="31" customWidth="1"/>
-    <col min="4" max="4" width="22.1111111111111" style="31" customWidth="1"/>
-    <col min="5" max="5" width="14" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" style="31" customWidth="1"/>
-    <col min="7" max="7" width="22.2222222222222" style="31" customWidth="1"/>
-    <col min="8" max="8" width="17.8888888888889" style="31" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="31"/>
-    <col min="10" max="10" width="19.5555555555556" style="31" customWidth="1"/>
-    <col min="11" max="11" width="24.7777777777778" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="31"/>
+    <col min="1" max="1" width="23.4444444444444" style="32" customWidth="1"/>
+    <col min="2" max="2" width="25.1111111111111" style="32" customWidth="1"/>
+    <col min="3" max="3" width="23.2222222222222" style="32" customWidth="1"/>
+    <col min="4" max="4" width="22.1111111111111" style="32" customWidth="1"/>
+    <col min="5" max="5" width="14" style="32" customWidth="1"/>
+    <col min="6" max="6" width="14.4444444444444" style="32" customWidth="1"/>
+    <col min="7" max="7" width="22.2222222222222" style="32" customWidth="1"/>
+    <col min="8" max="8" width="17.8888888888889" style="32" customWidth="1"/>
+    <col min="9" max="9" width="8.88888888888889" style="32"/>
+    <col min="10" max="10" width="19.5555555555556" style="32" customWidth="1"/>
+    <col min="11" max="11" width="24.7777777777778" style="32" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" s="36" customFormat="1" spans="1:1">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="37" customFormat="1" spans="1:1">
+      <c r="A1" s="37" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="37" customFormat="1" spans="1:1">
-      <c r="A2" s="37" t="s">
+    <row r="2" s="38" customFormat="1" spans="1:1">
+      <c r="A2" s="38" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" s="37" customFormat="1" spans="1:1">
-      <c r="A6" s="37" t="s">
+    <row r="6" s="38" customFormat="1" spans="1:1">
+      <c r="A6" s="38" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" s="30" customFormat="1" spans="1:1">
-      <c r="A9" s="30" t="s">
+    <row r="9" s="31" customFormat="1" spans="1:1">
+      <c r="A9" s="31" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="32" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" s="37" customFormat="1" spans="1:1">
-      <c r="A12" s="37" t="s">
+    <row r="12" s="38" customFormat="1" spans="1:1">
+      <c r="A12" s="38" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="41" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" s="30" customFormat="1" spans="1:1">
-      <c r="A15" s="30" t="s">
+    <row r="15" s="31" customFormat="1" spans="1:1">
+      <c r="A15" s="31" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="32" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" s="30" customFormat="1" spans="1:1">
-      <c r="A19" s="30" t="s">
+    <row r="19" s="31" customFormat="1" spans="1:1">
+      <c r="A19" s="31" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" s="37" customFormat="1" spans="1:1">
-      <c r="A23" s="37" t="s">
+    <row r="23" s="38" customFormat="1" spans="1:1">
+      <c r="A23" s="38" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" s="30" customFormat="1" spans="1:10">
-      <c r="A26" s="30" t="s">
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" s="31" customFormat="1" spans="1:10">
+      <c r="A26" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="31" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="31" t="s">
+      <c r="H27" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="32" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="32" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="32" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30" ht="14.4" spans="1:11">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="79" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="32" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="79" t="s">
+      <c r="H31" s="80" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="80" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="77" t="s">
+      <c r="E32" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="79" t="s">
+      <c r="H32" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="32" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="J33" s="31" t="s">
+      <c r="J33" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="31" t="s">
+      <c r="K33" s="32" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="80" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="79" t="s">
+      <c r="K34" s="80" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="35" ht="14.4" spans="1:11">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="31" t="s">
+      <c r="J35" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="79" t="s">
+      <c r="K35" s="80" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="79" t="s">
+      <c r="H36" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="79" t="s">
+      <c r="K36" s="80" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="79" t="s">
+      <c r="H37" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="J37" s="31" t="s">
+      <c r="J37" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="32" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" s="30" customFormat="1" spans="1:1">
-      <c r="A39" s="44" t="s">
+    <row r="39" s="31" customFormat="1" spans="1:1">
+      <c r="A39" s="45" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="46" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="80" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="34"/>
+      <c r="E43" s="35"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="34"/>
-    </row>
-    <row r="45" s="30" customFormat="1" spans="1:1">
-      <c r="A45" s="46" t="s">
+      <c r="E44" s="35"/>
+    </row>
+    <row r="45" s="31" customFormat="1" spans="1:1">
+      <c r="A45" s="47" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="31" t="s">
+      <c r="F46" s="32" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="32" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" s="37" customFormat="1" spans="1:1">
-      <c r="A48" s="47" t="s">
+    <row r="48" s="38" customFormat="1" spans="1:1">
+      <c r="A48" s="48" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="81" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="80" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="82" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="34"/>
+      <c r="E52" s="35"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="80" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" s="37" customFormat="1" spans="1:1">
-      <c r="A55" s="37" t="s">
+    <row r="55" s="38" customFormat="1" spans="1:1">
+      <c r="A55" s="38" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="34"/>
+      <c r="E56" s="35"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="83" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" s="29" customFormat="1" spans="1:1">
-      <c r="A61" s="29" t="s">
+    <row r="61" s="30" customFormat="1" spans="1:1">
+      <c r="A61" s="30" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" s="30" customFormat="1" spans="1:2">
-      <c r="A62" s="30" t="s">
+    <row r="62" s="31" customFormat="1" spans="1:2">
+      <c r="A62" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="31" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="80" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="32" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="80" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="34"/>
+      <c r="E64" s="35"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="80" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="67" s="32" customFormat="1" spans="1:5">
-      <c r="A67" s="32" t="s">
+    <row r="67" s="33" customFormat="1" spans="1:5">
+      <c r="A67" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="48"/>
+      <c r="E67" s="49"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="34"/>
+      <c r="E68" s="35"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="80" t="s">
+      <c r="B69" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="34"/>
+      <c r="E69" s="35"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="E70" s="34"/>
+      <c r="E70" s="35"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="34"/>
-    </row>
-    <row r="72" s="30" customFormat="1" spans="1:5">
-      <c r="A72" s="30" t="s">
+      <c r="E71" s="35"/>
+    </row>
+    <row r="72" s="31" customFormat="1" spans="1:5">
+      <c r="A72" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="46"/>
+      <c r="E72" s="47"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B73" s="79" t="s">
+      <c r="B73" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="32" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="80" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="79" t="s">
+      <c r="C74" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="35"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="33"/>
-      <c r="E75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="34"/>
-    </row>
-    <row r="77" s="32" customFormat="1" spans="1:5">
-      <c r="A77" s="32" t="s">
+      <c r="E76" s="35"/>
+    </row>
+    <row r="77" s="33" customFormat="1" spans="1:5">
+      <c r="A77" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="48"/>
+      <c r="E77" s="49"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="80" t="s">
+      <c r="B78" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="33"/>
+      <c r="D78" s="34"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="80" t="s">
+      <c r="B79" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="33"/>
-      <c r="E79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="35"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="34"/>
+      <c r="E80" s="35"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="34"/>
-    </row>
-    <row r="82" s="30" customFormat="1" spans="1:1">
-      <c r="A82" s="30" t="s">
+      <c r="E81" s="35"/>
+    </row>
+    <row r="82" s="31" customFormat="1" spans="1:1">
+      <c r="A82" s="31" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="80" t="s">
+      <c r="B83" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="32" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="80" t="s">
+      <c r="B84" s="81" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="80" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="79" t="s">
+      <c r="B85" s="80" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="34"/>
-    </row>
-    <row r="87" s="32" customFormat="1" spans="1:5">
-      <c r="A87" s="32" t="s">
+      <c r="E86" s="35"/>
+    </row>
+    <row r="87" s="33" customFormat="1" spans="1:5">
+      <c r="A87" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="48"/>
+      <c r="E87" s="49"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="80" t="s">
+      <c r="B88" s="81" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="35"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B89" s="80" t="s">
+      <c r="B89" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="33"/>
-      <c r="E89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="35"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="80" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" s="29" customFormat="1" spans="1:1">
-      <c r="A93" s="29" t="s">
+    <row r="93" s="30" customFormat="1" spans="1:1">
+      <c r="A93" s="30" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" s="30" customFormat="1" spans="1:1">
-      <c r="A94" s="30" t="s">
+    <row r="94" s="31" customFormat="1" spans="1:1">
+      <c r="A94" s="31" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="95" s="35" customFormat="1" spans="1:1">
-      <c r="A95" s="35" t="s">
+    <row r="95" s="36" customFormat="1" spans="1:1">
+      <c r="A95" s="36" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="79" t="s">
+      <c r="B96" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="34"/>
+      <c r="E96" s="35"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="79" t="s">
+      <c r="B97" s="80" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="79" t="s">
+      <c r="C97" s="80" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="C98" s="80" t="s">
+      <c r="C98" s="81" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="99" ht="27.6" spans="1:3">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B99" s="79" t="s">
+      <c r="B99" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="C99" s="79" t="s">
+      <c r="C99" s="80" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D100" s="31" t="s">
+      <c r="D100" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="50" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="34"/>
-    </row>
-    <row r="102" s="35" customFormat="1" spans="1:1">
-      <c r="A102" s="35" t="s">
+      <c r="E101" s="35"/>
+    </row>
+    <row r="102" s="36" customFormat="1" spans="1:1">
+      <c r="A102" s="36" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="31" t="s">
+      <c r="A103" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="34"/>
+      <c r="E103" s="35"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="31" t="s">
+      <c r="A104" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B104" s="79" t="s">
+      <c r="B104" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="D104" s="33"/>
-      <c r="E104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="35"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="31" t="s">
+      <c r="A105" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B105" s="81" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="106" ht="27.6" spans="1:11">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B106" s="79" t="s">
+      <c r="B106" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="34"/>
-      <c r="I106" s="49"/>
-      <c r="K106" s="34"/>
+      <c r="E106" s="35"/>
+      <c r="I106" s="50"/>
+      <c r="K106" s="35"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="31" t="s">
+      <c r="B107" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="M107" s="34"/>
+      <c r="M107" s="35"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="49" t="s">
+      <c r="B108" s="50" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="110" s="30" customFormat="1" spans="1:1">
-      <c r="A110" s="30" t="s">
+    <row r="110" s="31" customFormat="1" spans="1:1">
+      <c r="A110" s="31" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="111" s="35" customFormat="1" spans="1:1">
-      <c r="A111" s="35" t="s">
+    <row r="111" s="36" customFormat="1" spans="1:1">
+      <c r="A111" s="36" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B112" s="79" t="s">
+      <c r="B112" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="E112" s="34"/>
+      <c r="E112" s="35"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B113" s="79" t="s">
+      <c r="B113" s="80" t="s">
         <v>432</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="E113" s="34"/>
+      <c r="E113" s="35"/>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="79" t="s">
+      <c r="B114" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="C114" s="79" t="s">
+      <c r="C114" s="80" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="115" ht="27.6" spans="1:2">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B115" s="79" t="s">
+      <c r="B115" s="80" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="31" t="s">
+      <c r="A116" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B116" s="79" t="s">
+      <c r="B116" s="80" t="s">
         <v>435</v>
       </c>
-      <c r="C116" s="79" t="s">
+      <c r="C116" s="80" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="31" t="s">
+      <c r="A117" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B117" s="31" t="s">
+      <c r="B117" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="32" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" s="35" customFormat="1" spans="1:1">
-      <c r="A119" s="35" t="s">
+    <row r="119" s="36" customFormat="1" spans="1:1">
+      <c r="A119" s="36" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B120" s="79" t="s">
+      <c r="B120" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="E120" s="34"/>
+      <c r="E120" s="35"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="31" t="s">
+      <c r="A121" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B121" s="79" t="s">
+      <c r="B121" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="E121" s="34"/>
+      <c r="E121" s="35"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="80" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="123" ht="27.6" spans="1:2">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B123" s="79" t="s">
+      <c r="B123" s="80" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="31" t="s">
+      <c r="A124" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B124" s="79" t="s">
+      <c r="B124" s="80" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="31" t="s">
+      <c r="A125" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="32" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="31" t="s">
+      <c r="A126" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B126" s="49" t="s">
+      <c r="B126" s="50" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="129" s="29" customFormat="1" spans="1:1">
-      <c r="A129" s="29" t="s">
+    <row r="129" s="30" customFormat="1" spans="1:1">
+      <c r="A129" s="30" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="130" s="30" customFormat="1" spans="1:1">
-      <c r="A130" s="30" t="s">
+    <row r="130" s="31" customFormat="1" spans="1:1">
+      <c r="A130" s="31" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="131" s="38" customFormat="1" spans="1:2">
-      <c r="A131" s="38" t="s">
+    <row r="131" s="39" customFormat="1" spans="1:2">
+      <c r="A131" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="39" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="31" t="s">
+      <c r="A132" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="B132" s="31" t="s">
+      <c r="B132" s="32" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="31" t="s">
+      <c r="A133" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="79" t="s">
+      <c r="B133" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="34"/>
+      <c r="E133" s="35"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="B134" s="49" t="s">
+      <c r="B134" s="50" t="s">
         <v>443</v>
       </c>
-      <c r="E134" s="34"/>
+      <c r="E134" s="35"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="B135" s="31" t="s">
+      <c r="B135" s="32" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="31" t="s">
+      <c r="A136" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="B136" s="79" t="s">
+      <c r="B136" s="80" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6945,578 +7057,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="81" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="81" t="s">
         <v>447</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="81" t="s">
         <v>446</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="81" t="s">
         <v>447</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>402</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="80" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="80" t="s">
         <v>450</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="81" t="s">
         <v>451</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" ht="27.6" spans="1:4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" ht="27.6" spans="1:4">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="80" t="s">
         <v>454</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B51" s="79" t="s">
+      <c r="B51" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="79" t="s">
+      <c r="B52" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
     </row>
     <row r="54" ht="27.6" spans="1:4">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="80" t="s">
         <v>454</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="32" t="s">
         <v>417</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="B60" s="79" t="s">
+      <c r="B60" s="80" t="s">
         <v>446</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
     </row>
     <row r="62" ht="27.6" spans="1:4">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="B62" s="79" t="s">
+      <c r="B62" s="80" t="s">
         <v>456</v>
       </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7543,7 +7655,7 @@
       <c r="A1" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7551,7 +7663,7 @@
       <c r="A2" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7572,190 +7684,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="9"/>
+    <col min="1" max="1" width="23.4444444444444" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:2">
+      <c r="A10" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="84" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="85" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="85" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="B26" s="27"/>
+      <c r="B26" s="28"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>485</v>
       </c>
     </row>

--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="22188" windowHeight="9000" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="545">
   <si>
     <t>Schemes</t>
   </si>
@@ -1739,9 +1739,15 @@
     <t>01-04-2024</t>
   </si>
   <si>
+    <t>30-07-2024</t>
+  </si>
+  <si>
     <t>10-04-2024</t>
   </si>
   <si>
+    <t>30-08-2024</t>
+  </si>
+  <si>
     <t>Minimum Transaction Amount</t>
   </si>
   <si>
@@ -1859,13 +1865,13 @@
     <t>AddImagePath</t>
   </si>
   <si>
-    <t>C:\\Users\\vikra\\OneDrive\\Desktop\\One Drive Folder\\OneDrive\\Pictures\\Saved Pictures\\download.jpg</t>
+    <t>C:\Users\Admin\Pictures\Saved Pictures\Screenshot (34).png</t>
   </si>
   <si>
     <t>EditImagePath</t>
   </si>
   <si>
-    <t>C:\Users\vikra\OneDrive\Desktop\One Drive Folder\OneDrive\Pictures\Saved Pictures\Necklace.jpg</t>
+    <t>C:\Users\Admin\Pictures\Saved Pictures\Screenshot (35).png</t>
   </si>
   <si>
     <t>Categories</t>
@@ -1912,7 +1918,7 @@
     <t>AddSubCategory</t>
   </si>
   <si>
-    <t>Nosepin</t>
+    <t>Fingers</t>
   </si>
   <si>
     <t>SubCategoryName</t>
@@ -2197,12 +2203,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -2271,6 +2271,12 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2848,7 +2854,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2978,12 +2984,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3008,58 +3013,55 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3072,11 +3074,11 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3084,6 +3086,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3094,27 +3099,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
@@ -3457,8 +3462,8 @@
     <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="67" customFormat="1" spans="7:7">
-      <c r="G1" s="69" t="s">
+    <row r="1" s="66" customFormat="1" spans="7:7">
+      <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3466,25 +3471,25 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="70" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="70" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3492,25 +3497,25 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="70" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3518,25 +3523,25 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="70" t="s">
         <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="70" t="s">
         <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3544,25 +3549,25 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="70" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3570,25 +3575,25 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="70" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="70" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="70" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3596,25 +3601,25 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="71" t="s">
+      <c r="K8" s="70" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3622,25 +3627,25 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="70" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="70" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="70" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3648,25 +3653,25 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="70" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3674,25 +3679,25 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="70" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="70" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3700,25 +3705,25 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="70" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3726,25 +3731,25 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="70" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="70" t="s">
         <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="70" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3752,25 +3757,25 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="70" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3783,31 +3788,31 @@
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="70" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="70" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="70" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="70" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="70" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3815,31 +3820,31 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="70" t="s">
         <v>26</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="71" t="s">
+      <c r="M18" s="70" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3847,31 +3852,31 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="70" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="70" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="70" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="70" t="s">
         <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="70" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3879,31 +3884,31 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="70" t="s">
         <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="70" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3911,13 +3916,13 @@
       <c r="J21" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="70" t="s">
         <v>32</v>
       </c>
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="70" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3925,31 +3930,31 @@
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="70" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="70" t="s">
         <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="70" t="s">
         <v>36</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="70" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="70" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3957,31 +3962,31 @@
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="70" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="70" t="s">
         <v>7</v>
       </c>
       <c r="J23" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="70" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="70" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3989,31 +3994,31 @@
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="70" t="s">
         <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="70" t="s">
         <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="70" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="70" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="70" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4021,162 +4026,162 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="70" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="70" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="70" t="s">
         <v>10</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="70" t="s">
         <v>43</v>
       </c>
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" s="68" customFormat="1" spans="1:1">
-      <c r="A29" s="68" t="s">
+    <row r="29" s="67" customFormat="1" spans="1:1">
+      <c r="A29" s="67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" s="10" customFormat="1" spans="1:2">
-      <c r="A30" s="70" t="s">
+    <row r="30" s="9" customFormat="1" spans="1:2">
+      <c r="A30" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="1" spans="1:2">
-      <c r="A31" s="70" t="s">
+    <row r="31" s="9" customFormat="1" spans="1:2">
+      <c r="A31" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" s="10" customFormat="1" spans="1:2">
-      <c r="A32" s="70" t="s">
+    <row r="32" s="9" customFormat="1" spans="1:2">
+      <c r="A32" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" s="10" customFormat="1" spans="1:2">
-      <c r="A33" s="70" t="s">
+    <row r="33" s="9" customFormat="1" spans="1:2">
+      <c r="A33" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" s="10" customFormat="1" spans="1:2">
-      <c r="A34" s="70" t="s">
+    <row r="34" s="9" customFormat="1" spans="1:2">
+      <c r="A34" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:2">
-      <c r="A35" s="70" t="s">
+    <row r="35" s="9" customFormat="1" spans="1:2">
+      <c r="A35" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" s="10" customFormat="1" spans="1:2">
-      <c r="A36" s="70" t="s">
+    <row r="36" s="9" customFormat="1" spans="1:2">
+      <c r="A36" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" s="10" customFormat="1" spans="1:2">
-      <c r="A37" s="70" t="s">
+    <row r="37" s="9" customFormat="1" spans="1:2">
+      <c r="A37" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="1" spans="1:2">
-      <c r="A38" s="70" t="s">
+    <row r="38" s="9" customFormat="1" spans="1:2">
+      <c r="A38" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" s="10" customFormat="1" spans="1:2">
-      <c r="A39" s="70" t="s">
+    <row r="39" s="9" customFormat="1" spans="1:2">
+      <c r="A39" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="1" spans="1:2">
-      <c r="A40" s="70" t="s">
+    <row r="40" s="9" customFormat="1" spans="1:2">
+      <c r="A40" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" s="10" customFormat="1" spans="1:2">
-      <c r="A41" s="70" t="s">
+    <row r="41" s="9" customFormat="1" spans="1:2">
+      <c r="A41" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="1" spans="1:2">
-      <c r="A42" s="70" t="s">
+    <row r="42" s="9" customFormat="1" spans="1:2">
+      <c r="A42" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" spans="1:2">
-      <c r="A43" s="70" t="s">
+    <row r="43" s="9" customFormat="1" spans="1:2">
+      <c r="A43" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" s="10" customFormat="1"/>
-    <row r="45" s="68" customFormat="1" spans="1:1">
-      <c r="A45" s="68" t="s">
+    <row r="44" s="9" customFormat="1"/>
+    <row r="45" s="67" customFormat="1" spans="1:1">
+      <c r="A45" s="67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" s="10" customFormat="1" spans="1:2">
-      <c r="A46" s="10" t="s">
+    <row r="46" s="9" customFormat="1" spans="1:2">
+      <c r="A46" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4193,7 +4198,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4208,80 +4213,80 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>294</v>
       </c>
       <c r="C2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" t="s">
         <v>479</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>487</v>
-      </c>
-      <c r="E2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>488</v>
+      <c r="F2" s="85" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>493</v>
+        <v>481</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>497</v>
       </c>
       <c r="C4" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>495</v>
+        <v>498</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>497</v>
       </c>
       <c r="E4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>497</v>
+        <v>479</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>498</v>
+        <v>481</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4289,15 +4294,15 @@
         <v>374</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4305,28 +4310,28 @@
         <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4334,157 +4339,157 @@
         <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B16" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B17" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>510</v>
+      <c r="B20" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="C20" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>514</v>
+      <c r="A22" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>516</v>
+      <c r="A23" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="87" t="s">
-        <v>517</v>
+      <c r="B24" s="86" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>519</v>
+      <c r="A25" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="B26" s="87" t="s">
-        <v>521</v>
+      <c r="A26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>521</v>
+      <c r="A27" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B29" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B30" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>531</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>532</v>
+        <v>533</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>534</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="70" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>533</v>
-      </c>
-      <c r="B34" s="71" t="s">
-        <v>532</v>
+        <v>535</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>534</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="70" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -4492,31 +4497,31 @@
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G36" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="37" s="4" customFormat="1" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="71" t="s">
-        <v>538</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" spans="1:1">
+      <c r="B38" s="70" t="s">
+        <v>540</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4524,10 +4529,10 @@
         <v>374</v>
       </c>
       <c r="B41" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C41" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4548,32 +4553,32 @@
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4598,257 +4603,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="65" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="65" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="65" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="65" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="65" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="65" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="65" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="65" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="65" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="65" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="65" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="65" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="65" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="65" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="65" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="65" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="65" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="65" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="65" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="65" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="65" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="65" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="65" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="65" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="65" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="65" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="65" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="65" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="65" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="65" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="65" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="65" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="65" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="66" t="s">
+      <c r="A48" s="65" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="66" t="s">
+      <c r="A49" s="65" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="65" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="65" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4879,10 +4884,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="54" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4901,10 +4906,10 @@
       <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4912,21 +4917,21 @@
       <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="70" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4962,13 +4967,13 @@
       <c r="A9" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="70" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4990,18 +4995,18 @@
       <c r="A11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="70" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5009,7 +5014,7 @@
       <c r="A14" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="55" t="s">
         <v>156</v>
       </c>
       <c r="G14" t="s">
@@ -5020,10 +5025,10 @@
       <c r="A15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="70" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5031,7 +5036,7 @@
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="55" t="s">
         <v>161</v>
       </c>
       <c r="G16" t="s">
@@ -5075,10 +5080,10 @@
       <c r="A20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="70" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5094,28 +5099,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="54" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5149,10 +5154,10 @@
       <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="70" t="s">
         <v>185</v>
       </c>
       <c r="D25" t="s">
@@ -5161,10 +5166,10 @@
       <c r="E25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="70" t="s">
         <v>185</v>
       </c>
       <c r="I25" t="s">
@@ -5184,7 +5189,7 @@
       <c r="D26" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="55" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
@@ -5227,39 +5232,39 @@
       <c r="A28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="I28" s="71" t="s">
+      <c r="I28" s="70" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H30" s="54" t="s">
         <v>176</v>
       </c>
     </row>
@@ -5273,7 +5278,7 @@
       <c r="C31" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="61"/>
+      <c r="D31" s="59"/>
       <c r="G31" t="s">
         <v>200</v>
       </c>
@@ -5285,19 +5290,19 @@
       <c r="A32" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="70" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="70" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5353,7 +5358,7 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="61" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5381,18 +5386,18 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="54" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="56"/>
+      <c r="A40" s="54"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="70" t="s">
         <v>224</v>
       </c>
       <c r="C41" t="s">
@@ -5401,7 +5406,7 @@
       <c r="D41">
         <v>12345</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="70" t="s">
         <v>224</v>
       </c>
       <c r="F41" t="s">
@@ -5418,25 +5423,25 @@
       <c r="A42" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="56" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5444,30 +5449,30 @@
       <c r="A43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="D43" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="75" t="s">
+      <c r="G43" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="75" t="s">
+      <c r="H43" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="71" t="s">
+      <c r="I43" s="70" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="54" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5486,10 +5491,10 @@
       <c r="A48" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="70" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5497,10 +5502,10 @@
       <c r="A49" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="71" t="s">
+      <c r="C49" s="70" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5508,7 +5513,7 @@
       <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="70" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
@@ -5519,7 +5524,7 @@
       <c r="A51" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="70" t="s">
         <v>245</v>
       </c>
       <c r="C51" t="s">
@@ -5527,10 +5532,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="54" t="s">
         <v>248</v>
       </c>
       <c r="D53" t="s">
@@ -5538,7 +5543,7 @@
       </c>
     </row>
     <row r="54" spans="4:4">
-      <c r="D54" s="64"/>
+      <c r="D54" s="62"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
@@ -5558,10 +5563,10 @@
       <c r="A56" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="70" t="s">
         <v>252</v>
       </c>
       <c r="D56" t="s">
@@ -5572,7 +5577,7 @@
       <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="57" t="s">
         <v>254</v>
       </c>
       <c r="C57" t="s">
@@ -5586,10 +5591,10 @@
       <c r="A58" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="55" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
@@ -5600,13 +5605,13 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="63" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5614,13 +5619,13 @@
       <c r="A60" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="63" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5628,10 +5633,10 @@
       <c r="A61" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="73" t="s">
+      <c r="B61" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="70" t="s">
         <v>264</v>
       </c>
       <c r="D61" t="s">
@@ -5642,24 +5647,24 @@
       <c r="A62" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="65" t="s">
+      <c r="C62" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="D62" s="65" t="s">
+      <c r="D62" s="64" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="D64" s="64"/>
+      <c r="D64" s="62"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
@@ -5668,7 +5673,7 @@
       <c r="B66" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="57" t="s">
+      <c r="C66" s="55" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
@@ -5693,13 +5698,13 @@
       <c r="A68" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="63" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5707,10 +5712,10 @@
       <c r="A69" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="71" t="s">
+      <c r="B69" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="71" t="s">
+      <c r="C69" s="70" t="s">
         <v>272</v>
       </c>
       <c r="D69" t="s">
@@ -5732,7 +5737,7 @@
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="54" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5751,7 +5756,7 @@
       <c r="A75" t="s">
         <v>278</v>
       </c>
-      <c r="B75" s="71" t="s">
+      <c r="B75" s="70" t="s">
         <v>279</v>
       </c>
       <c r="C75" t="s">
@@ -5824,53 +5829,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="52" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" style="52" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="52"/>
+    <col min="1" max="1" width="13.1111111111111" style="50" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" style="50" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="1" spans="1:12">
-      <c r="A1" s="53" t="s">
+    <row r="1" s="49" customFormat="1" spans="1:12">
+      <c r="A1" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="52" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5888,1142 +5893,1142 @@
   <sheetPr/>
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="32" customWidth="1"/>
-    <col min="2" max="2" width="25.1111111111111" style="32" customWidth="1"/>
-    <col min="3" max="3" width="23.2222222222222" style="32" customWidth="1"/>
-    <col min="4" max="4" width="22.1111111111111" style="32" customWidth="1"/>
-    <col min="5" max="5" width="14" style="32" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" style="32" customWidth="1"/>
-    <col min="7" max="7" width="22.2222222222222" style="32" customWidth="1"/>
-    <col min="8" max="8" width="17.8888888888889" style="32" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="32"/>
-    <col min="10" max="10" width="19.5555555555556" style="32" customWidth="1"/>
-    <col min="11" max="11" width="24.7777777777778" style="32" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="32"/>
+    <col min="1" max="1" width="23.4444444444444" style="30" customWidth="1"/>
+    <col min="2" max="2" width="25.1111111111111" style="30" customWidth="1"/>
+    <col min="3" max="3" width="23.2222222222222" style="30" customWidth="1"/>
+    <col min="4" max="4" width="22.1111111111111" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14" style="30" customWidth="1"/>
+    <col min="6" max="6" width="14.4444444444444" style="30" customWidth="1"/>
+    <col min="7" max="7" width="22.2222222222222" style="30" customWidth="1"/>
+    <col min="8" max="8" width="17.8888888888889" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.88888888888889" style="30"/>
+    <col min="10" max="10" width="19.5555555555556" style="30" customWidth="1"/>
+    <col min="11" max="11" width="24.7777777777778" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" spans="1:1">
-      <c r="A1" s="37" t="s">
+    <row r="1" s="35" customFormat="1" spans="1:1">
+      <c r="A1" s="35" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="1" spans="1:1">
-      <c r="A2" s="38" t="s">
+    <row r="2" s="36" customFormat="1" spans="1:1">
+      <c r="A2" s="36" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" s="38" customFormat="1" spans="1:1">
-      <c r="A6" s="38" t="s">
+    <row r="6" s="36" customFormat="1" spans="1:1">
+      <c r="A6" s="36" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" s="31" customFormat="1" spans="1:1">
-      <c r="A9" s="31" t="s">
+    <row r="9" s="29" customFormat="1" spans="1:1">
+      <c r="A9" s="29" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" s="38" customFormat="1" spans="1:1">
-      <c r="A12" s="38" t="s">
+    <row r="12" s="36" customFormat="1" spans="1:1">
+      <c r="A12" s="36" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="15" s="31" customFormat="1" spans="1:1">
-      <c r="A15" s="31" t="s">
+    <row r="15" s="29" customFormat="1" spans="1:1">
+      <c r="A15" s="29" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" s="31" customFormat="1" spans="1:1">
-      <c r="A19" s="31" t="s">
+    <row r="19" s="29" customFormat="1" spans="1:1">
+      <c r="A19" s="29" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="23" s="38" customFormat="1" spans="1:1">
-      <c r="A23" s="38" t="s">
+    <row r="23" s="36" customFormat="1" spans="1:1">
+      <c r="A23" s="36" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" s="31" customFormat="1" spans="1:10">
-      <c r="A26" s="31" t="s">
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" s="29" customFormat="1" spans="1:10">
+      <c r="A26" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="29" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="30" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="30" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="32" t="s">
+      <c r="K29" s="30" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30" ht="14.4" spans="1:11">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="79" t="s">
+      <c r="E30" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="30" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="80" t="s">
+      <c r="H31" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="K31" s="80" t="s">
+      <c r="K31" s="79" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="H32" s="80" t="s">
+      <c r="H32" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="30" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G33" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="30" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="K34" s="80" t="s">
+      <c r="K34" s="79" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="35" ht="14.4" spans="1:11">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>358</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="K35" s="80" t="s">
+      <c r="K35" s="79" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="80" t="s">
+      <c r="H36" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="K36" s="80" t="s">
+      <c r="K36" s="79" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="H37" s="80" t="s">
+      <c r="H37" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="K37" s="32" t="s">
+      <c r="K37" s="30" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="39" s="31" customFormat="1" spans="1:1">
-      <c r="A39" s="45" t="s">
+    <row r="39" s="29" customFormat="1" spans="1:1">
+      <c r="A39" s="43" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="30" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="44" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="79" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="E43" s="35"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="35"/>
-    </row>
-    <row r="45" s="31" customFormat="1" spans="1:1">
-      <c r="A45" s="47" t="s">
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" s="29" customFormat="1" spans="1:1">
+      <c r="A45" s="45" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F46" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="47" spans="3:4">
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="30" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" s="38" customFormat="1" spans="1:1">
-      <c r="A48" s="48" t="s">
+    <row r="48" s="36" customFormat="1" spans="1:1">
+      <c r="A48" s="46" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="80" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="79" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="81" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="35"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="79" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" s="38" customFormat="1" spans="1:1">
-      <c r="A55" s="38" t="s">
+    <row r="55" s="36" customFormat="1" spans="1:1">
+      <c r="A55" s="36" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="33" t="s">
         <v>393</v>
       </c>
-      <c r="E56" s="35"/>
+      <c r="E56" s="33"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="82" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="61" s="30" customFormat="1" spans="1:1">
-      <c r="A61" s="30" t="s">
+    <row r="61" s="28" customFormat="1" spans="1:1">
+      <c r="A61" s="28" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" s="31" customFormat="1" spans="1:2">
-      <c r="A62" s="31" t="s">
+    <row r="62" s="29" customFormat="1" spans="1:2">
+      <c r="A62" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="29" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="79" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="30" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="80" t="s">
+      <c r="B64" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="C64" s="80" t="s">
+      <c r="C64" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="E64" s="35"/>
+      <c r="E64" s="33"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B65" s="80" t="s">
+      <c r="B65" s="79" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="67" s="33" customFormat="1" spans="1:5">
-      <c r="A67" s="33" t="s">
+    <row r="67" s="31" customFormat="1" spans="1:5">
+      <c r="A67" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="49"/>
+      <c r="E67" s="47"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="E68" s="35"/>
+      <c r="E68" s="33"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="35"/>
+      <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B70" s="80" t="s">
+      <c r="B70" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="E70" s="35"/>
+      <c r="E70" s="33"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="35"/>
-    </row>
-    <row r="72" s="31" customFormat="1" spans="1:5">
-      <c r="A72" s="31" t="s">
+      <c r="E71" s="33"/>
+    </row>
+    <row r="72" s="29" customFormat="1" spans="1:5">
+      <c r="A72" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="E72" s="47"/>
+      <c r="E72" s="45"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="30" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B74" s="80" t="s">
+      <c r="B74" s="79" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="79" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="35"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="80" t="s">
+      <c r="B75" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="35"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="33"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="35"/>
-    </row>
-    <row r="77" s="33" customFormat="1" spans="1:5">
-      <c r="A77" s="33" t="s">
+      <c r="E76" s="33"/>
+    </row>
+    <row r="77" s="31" customFormat="1" spans="1:5">
+      <c r="A77" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="49"/>
+      <c r="E77" s="47"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B78" s="81" t="s">
+      <c r="B78" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="32"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="81" t="s">
+      <c r="B79" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="35"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="33"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B80" s="80" t="s">
+      <c r="B80" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="35"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="35"/>
-    </row>
-    <row r="82" s="31" customFormat="1" spans="1:1">
-      <c r="A82" s="31" t="s">
+      <c r="E81" s="33"/>
+    </row>
+    <row r="82" s="29" customFormat="1" spans="1:1">
+      <c r="A82" s="29" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="32" t="s">
+      <c r="A83" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="80" t="s">
         <v>407</v>
       </c>
-      <c r="C83" s="80" t="s">
+      <c r="C83" s="79" t="s">
         <v>384</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="30" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="80" t="s">
         <v>409</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="79" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="80" t="s">
+      <c r="B85" s="79" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="35"/>
-    </row>
-    <row r="87" s="33" customFormat="1" spans="1:5">
-      <c r="A87" s="33" t="s">
+      <c r="E86" s="33"/>
+    </row>
+    <row r="87" s="31" customFormat="1" spans="1:5">
+      <c r="A87" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="49"/>
+      <c r="E87" s="47"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B88" s="81" t="s">
+      <c r="B88" s="80" t="s">
         <v>404</v>
       </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="35"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="33"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="80" t="s">
         <v>405</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="35"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="33"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B90" s="80" t="s">
+      <c r="B90" s="79" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="93" s="30" customFormat="1" spans="1:1">
-      <c r="A93" s="30" t="s">
+    <row r="93" s="28" customFormat="1" spans="1:1">
+      <c r="A93" s="28" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" s="31" customFormat="1" spans="1:1">
-      <c r="A94" s="31" t="s">
+    <row r="94" s="29" customFormat="1" spans="1:1">
+      <c r="A94" s="29" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="95" s="36" customFormat="1" spans="1:1">
-      <c r="A95" s="36" t="s">
+    <row r="95" s="34" customFormat="1" spans="1:1">
+      <c r="A95" s="34" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="32" t="s">
+      <c r="A96" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="80" t="s">
+      <c r="B96" s="79" t="s">
         <v>418</v>
       </c>
-      <c r="E96" s="35"/>
+      <c r="E96" s="33"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="32" t="s">
+      <c r="A97" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="80" t="s">
+      <c r="B97" s="79" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="80" t="s">
-        <v>384</v>
+      <c r="C97" s="79" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="32" t="s">
+      <c r="A98" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B98" s="80" t="s">
+      <c r="B98" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="C98" s="80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="99" ht="27.6" spans="1:3">
+      <c r="A99" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B99" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="C99" s="79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E100" s="48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="33"/>
+    </row>
+    <row r="102" s="34" customFormat="1" spans="1:1">
+      <c r="A102" s="34" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B103" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B104" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="D104" s="32"/>
+      <c r="E104" s="33"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B105" s="80" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="106" ht="27.6" spans="1:11">
+      <c r="A106" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B106" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="33"/>
+      <c r="I106" s="48"/>
+      <c r="K106" s="33"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="M107" s="33"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B108" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110" s="29" customFormat="1" spans="1:1">
+      <c r="A110" s="29" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" s="34" customFormat="1" spans="1:1">
+      <c r="A111" s="34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B112" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="E112" s="33"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B113" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="C113" s="79" t="s">
         <v>420</v>
       </c>
-      <c r="C98" s="81" t="s">
+      <c r="E113" s="33"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B114" s="79" t="s">
+        <v>435</v>
+      </c>
+      <c r="C114" s="79" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="115" ht="27.6" spans="1:2">
+      <c r="A115" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B115" s="79" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B116" s="79" t="s">
+        <v>437</v>
+      </c>
+      <c r="C116" s="79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" s="34" customFormat="1" spans="1:1">
+      <c r="A119" s="34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B120" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="E120" s="33"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B121" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="E121" s="33"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B122" s="79" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="99" ht="27.6" spans="1:3">
-      <c r="A99" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B99" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="C99" s="80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="32" t="s">
+    <row r="123" ht="27.6" spans="1:2">
+      <c r="A123" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B123" s="79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B124" s="79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B100" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D100" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="E100" s="50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="35"/>
-    </row>
-    <row r="102" s="36" customFormat="1" spans="1:1">
-      <c r="A102" s="36" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B103" s="80" t="s">
-        <v>425</v>
-      </c>
-      <c r="E103" s="35"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="B104" s="80" t="s">
-        <v>426</v>
-      </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="35"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B105" s="81" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="106" ht="27.6" spans="1:11">
-      <c r="A106" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B106" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="35"/>
-      <c r="I106" s="50"/>
-      <c r="K106" s="35"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="32" t="s">
+      <c r="B125" s="30" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B107" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="M107" s="35"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="B108" s="50" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="110" s="31" customFormat="1" spans="1:1">
-      <c r="A110" s="31" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" s="36" customFormat="1" spans="1:1">
-      <c r="A111" s="36" t="s">
+      <c r="B126" s="48" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B112" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="E112" s="35"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="B113" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="C113" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="E113" s="35"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B114" s="80" t="s">
-        <v>433</v>
-      </c>
-      <c r="C114" s="80" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="115" ht="27.6" spans="1:2">
-      <c r="A115" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B115" s="80" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B116" s="80" t="s">
-        <v>435</v>
-      </c>
-      <c r="C116" s="80" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="119" s="36" customFormat="1" spans="1:1">
-      <c r="A119" s="36" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B120" s="80" t="s">
-        <v>425</v>
-      </c>
-      <c r="E120" s="35"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="B121" s="80" t="s">
-        <v>426</v>
-      </c>
-      <c r="E121" s="35"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B122" s="80" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="123" ht="27.6" spans="1:2">
-      <c r="A123" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B123" s="80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B124" s="80" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="B126" s="50" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="129" s="30" customFormat="1" spans="1:1">
-      <c r="A129" s="30" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="130" s="31" customFormat="1" spans="1:1">
-      <c r="A130" s="31" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="131" s="39" customFormat="1" spans="1:2">
-      <c r="A131" s="39" t="s">
+    <row r="129" s="28" customFormat="1" spans="1:1">
+      <c r="A129" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="B131" s="39" t="s">
+    </row>
+    <row r="130" s="29" customFormat="1" spans="1:1">
+      <c r="A130" s="29" t="s">
         <v>440</v>
       </c>
     </row>
+    <row r="131" s="37" customFormat="1" spans="1:2">
+      <c r="A131" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>442</v>
+      </c>
+    </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="B132" s="32" t="s">
+      <c r="A132" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B132" s="30" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="32" t="s">
+      <c r="A133" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="80" t="s">
+      <c r="B133" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E133" s="35"/>
+      <c r="E133" s="33"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="B134" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="E134" s="35"/>
+      <c r="A134" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B134" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="E134" s="33"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="B135" s="32" t="s">
+      <c r="A135" s="30" t="s">
         <v>444</v>
       </c>
+      <c r="B135" s="30" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="B136" s="80" t="s">
+      <c r="A136" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B136" s="79" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7057,578 +7062,578 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B3" s="80" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B4" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="32" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B15" s="79" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B20" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="32" t="s">
+      <c r="B23" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
+      <c r="B24" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B25" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="32" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B18" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="32" t="s">
+      <c r="B28" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="35" t="s">
+      <c r="B29" s="80" t="s">
+        <v>449</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B30" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="32" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="32" t="s">
+      <c r="B37" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B24" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="32" t="s">
+      <c r="B38" s="80" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" ht="27.6" spans="1:4">
+      <c r="A39" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>455</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="32" t="s">
+      <c r="B44" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B29" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="32" t="s">
+      <c r="B45" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" ht="27.6" spans="1:4">
+      <c r="A46" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B46" s="79" t="s">
+        <v>456</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B51" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B52" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B53" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="32" t="s">
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" ht="27.6" spans="1:4">
+      <c r="A54" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B54" s="79" t="s">
+        <v>456</v>
+      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B59" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="80" t="s">
-        <v>450</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="32" t="s">
+      <c r="B60" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="81" t="s">
-        <v>451</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" ht="27.6" spans="1:4">
-      <c r="A39" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="32" t="s">
+      <c r="B61" s="79" t="s">
+        <v>449</v>
+      </c>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" ht="27.6" spans="1:4">
+      <c r="A62" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B62" s="79" t="s">
+        <v>458</v>
+      </c>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="79" t="s">
+        <v>459</v>
+      </c>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B43" s="80" t="s">
-        <v>453</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="B44" s="80" t="s">
-        <v>446</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" ht="27.6" spans="1:4">
-      <c r="A46" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B46" s="80" t="s">
-        <v>454</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B51" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="B52" s="80" t="s">
-        <v>446</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B53" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-    </row>
-    <row r="54" ht="27.6" spans="1:4">
-      <c r="A54" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B54" s="80" t="s">
-        <v>454</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B55" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B59" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="B60" s="80" t="s">
-        <v>446</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="B61" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-    </row>
-    <row r="62" ht="27.6" spans="1:4">
-      <c r="A62" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="B62" s="80" t="s">
-        <v>456</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="B63" s="80" t="s">
-        <v>457</v>
-      </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+      <c r="B64" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7642,7 +7647,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -7653,18 +7658,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -7679,196 +7684,196 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.5555555555556" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="10"/>
+    <col min="1" max="1" width="23.4444444444444" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.5555555555556" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="B2" s="14"/>
+      <c r="A2" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>465</v>
+      <c r="B3" s="14" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>467</v>
+      <c r="B5" s="14" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:2">
-      <c r="A10" s="19" t="s">
+      <c r="A9" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:2">
+      <c r="A10" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>470</v>
+      <c r="B10" s="19" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="B11" s="22"/>
+      <c r="A11" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>472</v>
+      <c r="B12" s="14" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="B14" s="23" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="B15" s="25"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>350</v>
-      </c>
-    </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="B20" s="26"/>
+      <c r="A20" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" s="25"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>478</v>
+      <c r="A21" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>480</v>
+      <c r="A22" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="85" t="s">
-        <v>482</v>
+      <c r="B24" s="84" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="B26" s="28"/>
+      <c r="A26" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" s="27"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>485</v>
+      <c r="A27" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
